--- a/eda/vlsp2016/dev/column-1-analyze.xlsx
+++ b/eda/vlsp2016/dev/column-1-analyze.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
   <si>
     <t>1</t>
   </si>
@@ -28,13 +28,13 @@
     <t>A</t>
   </si>
   <si>
-    <t>nhiều, hơn, khác, cùng, nhất, nhỏ, lớn, gần, đầy, vui</t>
+    <t>nhiều, hơn, khác, cùng, nhỏ, nhất, lớn, gần, đầy, vui</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>nhưng, như, mà, thì, là, rồi, rằng, Nhưng, nên, nếu</t>
+    <t>và, nhưng, như, mà, thì, là, rồi, rằng, Nhưng, Và</t>
   </si>
   <si>
     <t>CH</t>
@@ -43,12 +43,6 @@
     <t>,, ., ", ..., :, -, (, ), ?, !</t>
   </si>
   <si>
-    <t>Cc</t>
-  </si>
-  <si>
-    <t>và, Và, hay, hoặc, với, cùng, Hoặc, hay là, Với</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
@@ -58,25 +52,19 @@
     <t>FW</t>
   </si>
   <si>
-    <t>cas, Moran, copywriter, serum, Ninfan, transistor, cancer, pensées, director, Para</t>
+    <t>oxy, marketing, shop, cas, nilông, radio, Moran, Oxy, rocket, OK</t>
   </si>
   <si>
     <t>I</t>
   </si>
   <si>
-    <t>ơi, Ôi, ư, ạ, nhỉ, Ồ, Ừ, Vâng, nha, Thôi</t>
-  </si>
-  <si>
-    <t>I-NP</t>
-  </si>
-  <si>
-    <t>Đường</t>
+    <t>ơi, Ôi, ư, ạ, nha, Ừ, Vâng, nhỉ, Ồ, Thôi</t>
   </si>
   <si>
     <t>L</t>
   </si>
   <si>
-    <t>những, các, Những, mấy, mọi, mỗi, vài, một số, Các, Mấy</t>
+    <t>những, các, Những, mấy, mọi, mỗi, vài, một số, Mấy, Các</t>
   </si>
   <si>
     <t>M</t>
@@ -91,55 +79,28 @@
     <t>người, khi, năm, ngày, mẹ, nhà, em, con, đường, sau</t>
   </si>
   <si>
-    <t>NNP</t>
-  </si>
-  <si>
-    <t>Thuỳ, VN, Mỹ, Nguyễn, Trâm, Khiêm, Thành, miền, HCM, Văn</t>
-  </si>
-  <si>
-    <t>Nb</t>
-  </si>
-  <si>
-    <t>oxy, marketing, shop, nilông, Oxy, radio, rocket, cas, OK, êkip</t>
-  </si>
-  <si>
     <t>Nc</t>
   </si>
   <si>
-    <t>cái, con, chiếc, cuốn, tấm, lá, mảnh, bức, thứ, cây</t>
-  </si>
-  <si>
-    <t>Ne</t>
-  </si>
-  <si>
-    <t>bọn, tụi, đám, toán, đống, dãy, Bọn, tập, Dòng, đàn</t>
-  </si>
-  <si>
-    <t>Ni</t>
-  </si>
-  <si>
-    <t>Ns</t>
-  </si>
-  <si>
-    <t>người, chị, anh, bà, ông, cô, Anh, đứa, cậu, Chị</t>
+    <t>người, chị, anh, bà, ông, cái, con, cô, chiếc, Anh</t>
+  </si>
+  <si>
+    <t>Np</t>
+  </si>
+  <si>
+    <t>Thuỳ, VN, Mỹ, Nguyễn, Trâm, Khiêm, Thành, miền, Văn, HCM</t>
   </si>
   <si>
     <t>Nu</t>
   </si>
   <si>
-    <t>đồng, phút, lít, g, giờ, ha, USD, m, tấn, kg</t>
+    <t>đồng, phút, lít, g, giờ, ha, m, USD, tấn, km</t>
   </si>
   <si>
     <t>Ny</t>
   </si>
   <si>
-    <t>TP., NTLS, ĐDV, BS, ĐĐV, CCV, TP, UBND, AIDS, Q.</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>4</t>
+    <t>TP., NTLS, ĐDV, BS, ĐĐV, CCV, TP, Q., UBND, AIDS</t>
   </si>
   <si>
     <t>P</t>
@@ -157,7 +118,7 @@
     <t>T</t>
   </si>
   <si>
-    <t>cả, chính, rồi, thôi, ngay, thật, đâu, mà, sao, nào</t>
+    <t>cả, chính, rồi, thôi, ngay, thật, đâu, mà, nào, sao</t>
   </si>
   <si>
     <t>V</t>
@@ -169,13 +130,13 @@
     <t>X</t>
   </si>
   <si>
-    <t>một mình, vì sao, Tại sao, Vì sao, làm sao, như vậy, ngày càng, vừa qua, thật ra, có lẽ</t>
+    <t>vì sao, một mình, Vì sao, Tại sao, làm sao, như vậy, ngày càng, vừa qua, thế nào, như thế</t>
   </si>
   <si>
     <t>Z</t>
   </si>
   <si>
-    <t>đa, phó, Phó, viên, phi</t>
+    <t>đa, phó, viên, Phó, phi</t>
   </si>
 </sst>
 </file>
@@ -524,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -559,7 +520,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>1125</v>
+        <v>1673</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -581,7 +542,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>548</v>
+        <v>2819</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -592,7 +553,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>2819</v>
+        <v>96</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -603,7 +564,7 @@
         <v>13</v>
       </c>
       <c r="B7" t="n">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -614,7 +575,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="n">
-        <v>68</v>
+        <v>942</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -625,7 +586,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>1423</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
@@ -636,7 +597,7 @@
         <v>19</v>
       </c>
       <c r="B10" t="n">
-        <v>942</v>
+        <v>9598</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
@@ -647,7 +608,7 @@
         <v>21</v>
       </c>
       <c r="B11" t="n">
-        <v>1422</v>
+        <v>1611</v>
       </c>
       <c r="C11" t="s">
         <v>22</v>
@@ -658,7 +619,7 @@
         <v>23</v>
       </c>
       <c r="B12" t="n">
-        <v>9598</v>
+        <v>1848</v>
       </c>
       <c r="C12" t="s">
         <v>24</v>
@@ -669,7 +630,7 @@
         <v>25</v>
       </c>
       <c r="B13" t="n">
-        <v>1846</v>
+        <v>139</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
@@ -680,7 +641,7 @@
         <v>27</v>
       </c>
       <c r="B14" t="n">
-        <v>75</v>
+        <v>157</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -691,7 +652,7 @@
         <v>29</v>
       </c>
       <c r="B15" t="n">
-        <v>428</v>
+        <v>2388</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
@@ -702,7 +663,7 @@
         <v>31</v>
       </c>
       <c r="B16" t="n">
-        <v>50</v>
+        <v>3178</v>
       </c>
       <c r="C16" t="s">
         <v>32</v>
@@ -713,120 +674,43 @@
         <v>33</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>306</v>
       </c>
       <c r="C17" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" t="n">
-        <v>1133</v>
+        <v>8728</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B20" t="n">
-        <v>157</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
         <v>40</v>
-      </c>
-      <c r="B21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" t="n">
-        <v>2388</v>
-      </c>
-      <c r="C22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" t="n">
-        <v>3178</v>
-      </c>
-      <c r="C23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" t="n">
-        <v>306</v>
-      </c>
-      <c r="C24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" t="n">
-        <v>8728</v>
-      </c>
-      <c r="C25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" t="n">
-        <v>127</v>
-      </c>
-      <c r="C26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" t="n">
-        <v>10</v>
-      </c>
-      <c r="C27" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
